--- a/data_tables/adults_smoke/share-of-adults-who-smoke-cleaned-data.xlsx
+++ b/data_tables/adults_smoke/share-of-adults-who-smoke-cleaned-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulrikaeriksson/Documents/Data_Mining/DataMining-Group23/data_tables/adults_smoke/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620B7E92-074E-8840-A83D-37E2A4A49537}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31D7234-FFA7-EC4A-980F-E3097054C48D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1440" windowWidth="27440" windowHeight="15420" xr2:uid="{D3CD0080-B90E-4447-8DDE-72716DA2F5F2}"/>
   </bookViews>
